--- a/biology/Zoologie/Gobemouche_à_croupion_jaune/Gobemouche_à_croupion_jaune.xlsx
+++ b/biology/Zoologie/Gobemouche_à_croupion_jaune/Gobemouche_à_croupion_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_croupion_jaune</t>
+          <t>Gobemouche_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficedula zanthopygia
 Le Gobemouche à croupion jaune (Ficedula zanthopygia) est une espèce de passereaux de la famille des Muscicapidae originaire de l'Asie. Une espèce particulière qui ne ressemble qu'au Gobemouche narcisse. Il se reproduit en Asie orientale, y compris les parties de la Mongolie, Transbaïkalie, sud de la Chine, la Corée et l'ouest du Japon. Il passe l'hiver dans certaines parties de la péninsule malaise et sud de l'Asie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_croupion_jaune</t>
+          <t>Gobemouche_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se caractérise par son croupion jaune. Le sourcil blanc du mâle le distingue du Gobemouche narcisse. Les femelles et les jeunes mâles sont gris olive dessus avec la queue noirâtre.
 </t>
